--- a/RPA_최종현_작업폴더/Data/Config.xlsx
+++ b/RPA_최종현_작업폴더/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdrk\OneDrive\문서\GitHub\alphaco5_teamproejct2\RPA_최종현_작업폴더\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0BDB0-190F-4BC5-AC83-C27FF23E5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9388B3EC-7B9D-4BC5-8CA7-BFFA23C76DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,6 +827,376 @@
   </si>
   <si>
     <t>AddInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_NoExist_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_NoExist_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중요)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Vendor Tax ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인 요망</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영담당자님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+Vendor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색되지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Tax ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발견되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첨부하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냅니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부탁드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +1273,20 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -932,7 +1316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +1336,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1661,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
@@ -1325,11 +1712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="3" width="40.75" style="1" customWidth="1"/>
@@ -1347,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.899999999999999">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="16.899999999999999">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="16.899999999999999">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1815,7 @@
       <selection activeCell="B35" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1535,11 +1922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -1577,7 +1964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="16.899999999999999">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="16.899999999999999">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="49.5">
+    <row r="6" spans="1:3" ht="50.65">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1606,6 +1993,22 @@
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="73.150000000000006">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">

--- a/RPA_최종현_작업폴더/Data/Config.xlsx
+++ b/RPA_최종현_작업폴더/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdrk\OneDrive\문서\GitHub\alphaco5_teamproejct2\RPA_최종현_작업폴더\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9388B3EC-7B9D-4BC5-8CA7-BFFA23C76DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803799B5-D428-4ABD-A1EA-D55495D6A8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="5145" yWindow="712" windowWidth="13132" windowHeight="10561" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,6 +1197,95 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Template\ISO_MasterTable.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO_Code_Exel_Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1374,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1710,16 +1806,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -1798,6 +1895,17 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
